--- a/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>ATVK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,83 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>43524</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43434</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43343</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43251</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43159</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43069</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42978</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42886</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42794</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42704</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42613</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -768,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,31 +983,37 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,17 +1047,17 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,28 +1097,30 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1075,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1086,29 +1140,35 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>700</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
@@ -1116,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1127,8 +1187,14 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,29 +1210,31 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,20 +1317,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1267,29 +1347,35 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1297,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1308,8 +1394,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,29 +1488,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
@@ -1420,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1431,29 +1535,35 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
@@ -1461,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1472,8 +1582,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,29 +1770,35 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1677,29 +1817,35 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
@@ -1707,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -1718,8 +1864,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,29 +1911,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
@@ -1789,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -1800,54 +1958,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>43524</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43434</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43343</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43251</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43159</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43069</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42978</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42886</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42794</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42704</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42613</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,16 +2052,18 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1904,14 +2078,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -1921,8 +2095,14 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1950,11 +2130,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -1962,31 +2142,37 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2003,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,16 +2236,22 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2070,11 +2268,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2085,16 +2283,22 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2109,14 +2313,14 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,16 +2377,22 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2185,17 +2401,17 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2208,31 +2424,37 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,16 +2659,22 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2431,19 +2683,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2454,8 +2706,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,28 +2748,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2529,37 +2791,43 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2570,19 +2838,25 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2611,37 +2885,43 @@
       <c r="O59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -2652,13 +2932,19 @@
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2693,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,37 +3167,43 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -2898,8 +3214,14 @@
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,13 +3327,19 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,37 +3421,43 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-500</v>
       </c>
       <c r="M72" s="3">
         <v>-500</v>
@@ -3120,8 +3468,14 @@
       <c r="O72" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3609,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-800</v>
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
       </c>
       <c r="G76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
@@ -3284,8 +3656,14 @@
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,75 +3703,87 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>43524</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43434</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43343</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43251</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43159</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43069</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42978</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42886</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42794</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42704</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42613</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
@@ -3401,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -3412,8 +3802,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,29 +4103,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -3705,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3716,8 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,25 +4173,27 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,22 +4310,28 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>100</v>
@@ -3880,25 +4340,31 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,38 +4564,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4119,8 +4611,14 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,16 +4658,22 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4178,20 +4682,20 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>ATVK</t>
   </si>
@@ -2062,8 +2062,8 @@
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2250,8 +2250,8 @@
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2297,8 +2297,8 @@
       <c r="D46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
+      <c r="E46" s="3">
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2391,8 +2391,8 @@
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2673,8 +2673,8 @@
       <c r="D54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
+      <c r="E54" s="3">
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2758,11 +2758,11 @@
       <c r="D57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2771,7 +2771,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2805,20 +2805,20 @@
       <c r="D58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2852,11 +2852,11 @@
       <c r="D59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2899,23 +2899,23 @@
       <c r="D60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
+      <c r="E60" s="3">
+        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H60" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3181,23 +3181,23 @@
       <c r="D66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
+      <c r="E66" s="3">
+        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H66" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3435,23 +3435,23 @@
       <c r="D72" s="3">
         <v>-2100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3">
+        <v>-1400</v>
       </c>
       <c r="F72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I72" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="J72" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K72" s="3">
         <v>-600</v>
@@ -3623,23 +3623,23 @@
       <c r="D76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
+      <c r="E76" s="3">
+        <v>-700</v>
       </c>
       <c r="F76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
-        <v>-800</v>
-      </c>
       <c r="H76" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I76" s="3">
-        <v>-600</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>ATVK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,91 +666,102 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -782,8 +793,17 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,25 +1039,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1015,14 +1074,14 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1036,8 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,28 +1113,28 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1083,8 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,46 +1176,49 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>-500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1146,55 +1226,73 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>200</v>
+      </c>
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1310,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,23 +1328,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1259,19 +1360,28 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1306,8 +1416,17 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,14 +1436,14 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1332,14 +1451,14 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1353,46 +1472,55 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1400,8 +1528,17 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,46 +1640,55 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>200</v>
+      </c>
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1541,46 +1696,55 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>200</v>
+      </c>
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1588,8 +1752,17 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1976,17 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,23 +2000,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1823,46 +2032,55 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-400</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -1870,8 +2088,17 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,46 +2144,55 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>200</v>
+      </c>
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-400</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -1964,60 +2200,78 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2084,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2093,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2101,8 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2136,31 +2405,40 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2174,14 +2452,14 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2195,8 +2473,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2529,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2274,14 +2570,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2289,8 +2585,17 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,10 +2603,10 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2319,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2328,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2336,31 +2641,40 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2383,8 +2697,17 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2404,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2430,20 +2753,29 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2900</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2456,14 +2788,14 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2477,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2921,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,20 +3033,29 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2686,25 +3063,25 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -2712,8 +3089,17 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,34 +3139,37 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2797,46 +3189,55 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -2844,23 +3245,32 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
@@ -2891,67 +3301,85 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
       <c r="P60" s="3">
         <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3413,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
+        <v>600</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3342,10 +3845,10 @@
         <v>900</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3380,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,46 +3939,55 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-500</v>
@@ -3474,8 +3995,17 @@
       <c r="Q72" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,37 +4163,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-800</v>
       </c>
       <c r="G76" s="3">
         <v>-700</v>
       </c>
       <c r="H76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -3662,8 +4219,17 @@
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,98 +4275,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>200</v>
+      </c>
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-400</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -3808,8 +4392,17 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,22 +4432,22 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3874,8 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="E89" s="3">
+        <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,25 +4834,28 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4201,8 +4863,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4222,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4996,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>100</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>100</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5298,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,25 +5410,34 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>0</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3">
-        <v>-100</v>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -4694,21 +5449,30 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATVK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>ATVK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,14 +1082,14 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1103,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1136,8 +1159,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,49 +1205,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,38 +1277,38 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1346,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1337,17 +1371,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1369,23 +1403,26 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1445,8 +1485,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1460,8 +1500,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1481,28 +1521,31 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1511,20 +1554,20 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,28 +1698,31 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1679,20 +1731,20 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1705,28 +1757,31 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1735,20 +1790,20 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2052,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2009,17 +2079,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2041,28 +2111,31 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2071,20 +2144,20 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,28 +2229,31 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2183,20 +2262,20 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2353,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,10 +2531,10 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2461,8 +2554,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2579,8 +2678,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2609,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2633,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2661,8 +2766,8 @@
       <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>700</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2676,8 +2781,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2706,13 +2811,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2736,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2744,8 +2852,8 @@
       <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,11 +2885,11 @@
         <v>3000</v>
       </c>
       <c r="F49" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="3">
         <v>2900</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,8 +2908,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3165,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,11 +3180,11 @@
         <v>3700</v>
       </c>
       <c r="F54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3072,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
@@ -3084,7 +3210,7 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,26 +3272,27 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
@@ -3172,7 +3303,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -3228,7 +3362,7 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3239,8 +3373,8 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>100</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,17 +3400,17 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
-        <v>100</v>
-      </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,31 +3459,31 @@
         <v>1900</v>
       </c>
       <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
+        <v>600</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -3352,7 +3492,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,14 +3518,14 @@
         <v>1600</v>
       </c>
       <c r="E61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3658,28 +3816,28 @@
         <v>3500</v>
       </c>
       <c r="F66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G66" s="3">
         <v>3100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3688,7 +3846,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +4019,7 @@
         <v>900</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,31 +4131,31 @@
         <v>-2400</v>
       </c>
       <c r="E72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1100</v>
       </c>
       <c r="K72" s="3">
         <v>-1100</v>
       </c>
       <c r="L72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-600</v>
       </c>
       <c r="N72" s="3">
         <v>-600</v>
@@ -3990,7 +4164,7 @@
         <v>-600</v>
       </c>
       <c r="P72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-500</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,28 +4370,28 @@
         <v>-600</v>
       </c>
       <c r="F76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-600</v>
       </c>
       <c r="L76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,89 +4473,95 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4375,20 +4570,20 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4432,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4449,8 +4648,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4973,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
@@ -4776,33 +4993,33 @@
       <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,11 +5084,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,49 +5250,52 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
       <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5550,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -5322,35 +5568,35 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5431,37 +5683,37 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
